--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c519b7b435c380b9/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c519b7b435c380b9/Desktop/SQL_Training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9BEE6A0-9D81-4F46-8564-F5F34EFA0C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{A9BEE6A0-9D81-4F46-8564-F5F34EFA0C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B299931-A663-4AF6-A22D-282CB082C607}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5786CFA9-3F71-4419-A17E-81D82EAC7DA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SQL" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Fundamentals</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Indexes and Constraints</t>
   </si>
   <si>
-    <t>Index (DML)</t>
-  </si>
-  <si>
     <t>Usage and Importance of Indexes</t>
   </si>
   <si>
@@ -327,6 +324,116 @@
   </si>
   <si>
     <t>Topics</t>
+  </si>
+  <si>
+    <t>What do aggregate functions do?
+How does the GROUP BY clause work?
+What is the difference between a GROUP BY and ORDER BY?
+What is the HAVING clause used for?
+Can the WHERE clause always be considered a substitute for the HAVING clause? Why or why not?
+Will nulls in grouped columns be included in a result set?
+How do aggregate functions treat nulls?
+Does the sequence of the columns in a GROUP BY clause have an effect on the end result?
+When would it not make sense to use the GROUP BY and DISTINCT functions together?
+Is GROUP BY affected by nulls?
+Which comes first in a SELECT statement, an ORDER BY or GROUP BY? Why?
+The GROUP BY and ________________ clauses are used together.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a table called Employees with a name, a salary and job title. Include exactly six rows. Make the salary null in one row, the job title null 
+in another, and both the salary and the job title in another. 
+a___Display the table.
+b___Display count, sum, maximum, minimum, and average salary.
+c___Display count, sum, maximum, minimum, and average salary, counting salary as 0 if no salary is listed.
+d___Display the average salary grouped by job title on the table as is.
+e___Display the average salary grouped by job title when null salary is counted as 0.
+f___Display the average salary grouped by job title when salary is counted as 0 if it is null and include a value for "no job title."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create two tables, Table_1(A, B) and Table_2(A, B,C,D).
+Try the following statements and note the results:
+    SELECT * FROM Table1 UNION SELECT * FROM Table2
+    SELECT * FROM Table1 UNION SELECT A,B FROM Table2
+    SELECT * FROM Table1 UNION SELECT B,A FROM Table1
+    SELECT * FROM Table1 UNION SELECT A,C FROM Table2
+    SELECT * FROM Table1 UNION SELECT A,D FROM Table2
+    CREATE VIEW viewx AS
+    SELECT A,B
+    FROM Table2
+    SELECT *
+    FROM Table1
+      UNION
+    SELECT *
+    FROM viewx
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index </t>
+  </si>
+  <si>
+    <t>What is an index?
+Does an index slow down updates on indexed columns?
+What is a constraint?
+How many indexes does MySQL Server  allow you to have on a table?
+What command would you use to create an index?
+Is there a difference between an index and a constraint?
+What is the default ordering that will be created by an index (ascending or descending)?
+When can the UNIQUE option be used?
+What does the IGNORE NULL option do?
+How do you delete an index?
+What does the NOT NULL constraint do?
+What command must you use to include the NOT NULL constraint after a table has already been created?
+When a PRIMARY KEY constraint is included in a table, what other constraints does this imply?
+What is a concatenated primary key?
+How are the UNIQUE and PRIMARY KEY constraints different?
+What is a referential integrity constraint? What two keys does the referential integrity constraint usually include?
+What is a foreign key?</t>
+  </si>
+  <si>
+    <t>To test choices of data types, create a table with various data types like this:
+CREATE TABLE Test3
+  (name                VARCHAR(20),
+   ssn                 CHAR(9),
+   dept_number         INTEGER,
+   acct_balance        SMALLMONEY)
+Then insert values into the table to see what will and will not be accepted. The following data may or may not be acceptable. You are welcome to try other choices.
+'xx','yy',2,5
+'xx','yyy',2000000000,5
+'xx','yyyy',2,1234567.89
+Create an index of ssn in ascending order of ssn. Try to insert some new data in the ssn column. Does your ssn column take nulls?
+Does your ssn column take duplicates? If so, how can you prevent this column from taking duplicates?
+Include a NOT NULL constraint on the ssn column. Now try to insert some new data in the ssn column with nulls in the ssn column. What happens?
+With this NOT NULL constraint, is it necessary to include the PRIMARY KEY constraint? Why or why not? Now include the PRIMARY KEY constraint and seewhether there is any difference in the types of values it accepts.
+Include some data with null values in the dept_number and acct_balance columns. Now include the NOT NULL constraint in the acct_balance column. What happens?
+Include the NOT NULL constraint in the acct_balance column. What happens?</t>
+  </si>
+  <si>
+    <t>Create a database named "student_course" using command.
+Create the following tables Student, Department and Course tables.
+Define various columns in tables.
+Use CREATE, INSERT, UPDATE, ALTER AND DELETE commands for tables.</t>
+  </si>
+  <si>
+    <t>What is Normalization?
+Why do we need Normalization?
+What are the advantages of Normalization?
+What are the disadvantages of Normalization?
+How many types of normal forms exists?
+What is 1NF?
+What is 2NF?
+What is 3NF?
+What is BCNF ( Boyce Codd's normal form)?</t>
+  </si>
+  <si>
+    <t>Create a table Employee (EMP_ID,EMP_Name,EMP_Phone,EMP_State).
+If Employee has two numbers, will the table be in 1NF? If no how to convert into 1NF.</t>
+  </si>
+  <si>
+    <t>What is NoSQL?
+What is the difference between SQL and NoSQL?
+How many types of NoSQL?
+Where to use NoSQL? Real time usage of NoSQL.</t>
   </si>
 </sst>
 </file>
@@ -484,12 +591,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -502,77 +669,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,11 +1016,11 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -923,532 +1030,550 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="19"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="19"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="19"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="32"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="32"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="32"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="32"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="20"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="21"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="21"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="21"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="21"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="21"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="21"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="23"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="21"/>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="30" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="21"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="21"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="31"/>
+      <c r="F31" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="21"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="8"/>
       <c r="D32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="32"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="21"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="8"/>
       <c r="D33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="32"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="21"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="8"/>
       <c r="D34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="32"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="21"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="8"/>
       <c r="D35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="32"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="21"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="9"/>
       <c r="D36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="33"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="21"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="2:6" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
+      <c r="E38" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="68" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="21"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="20"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="13"/>
+      <c r="F42" s="38"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="21"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="20"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="13"/>
+      <c r="F43" s="38"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="21"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="20"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="13"/>
+      <c r="F44" s="38"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="21"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="20"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="13"/>
+      <c r="F45" s="38"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="21"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="20"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="13"/>
+      <c r="F46" s="38"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="21"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="20"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="14"/>
+      <c r="F47" s="39"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="21"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="21"/>
+      <c r="C49" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="20"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="20"/>
-      <c r="C49" s="21" t="s">
+      <c r="D49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="21"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="38"/>
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="21"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="38"/>
+      <c r="F51" s="25"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="21"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
+      <c r="F52" s="25"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
+      <c r="F53" s="26"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="30"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="23"/>
     </row>
     <row r="55" spans="2:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="24"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56" s="22"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="38"/>
+      <c r="F56" s="25"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="22"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="28"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57" s="28"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
+      <c r="F57" s="25"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="28"/>
-      <c r="C58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="20"/>
       <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
+      <c r="F58" s="26"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
@@ -1459,27 +1584,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="F10:F16"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="B41:B52"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="F41:F47"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="F55:F58"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="C11:C16"/>
@@ -1496,6 +1600,27 @@
     <mergeCell ref="E10:E16"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E26:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
